--- a/natmiOut/OldD0/LR-pairs_lrc2p/Tnf-Tnfrsf21.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Tnf-Tnfrsf21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,13 +79,13 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>Tnf</t>
   </si>
   <si>
     <t>Tnfrsf21</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>37.2355522356001</v>
+        <v>459.5553626666667</v>
       </c>
       <c r="H2">
-        <v>37.2355522356001</v>
+        <v>1378.666088</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.997342491800172</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.997342491800172</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.6229184427431</v>
+        <v>12.98318866666667</v>
       </c>
       <c r="N2">
-        <v>10.6229184427431</v>
+        <v>38.949566</v>
       </c>
       <c r="O2">
-        <v>0.186947174556007</v>
+        <v>0.2170149059254416</v>
       </c>
       <c r="P2">
-        <v>0.186947174556007</v>
+        <v>0.2170149059254416</v>
       </c>
       <c r="Q2">
-        <v>395.5502345692804</v>
+        <v>5966.493976279758</v>
       </c>
       <c r="R2">
-        <v>395.5502345692804</v>
+        <v>53698.44578651781</v>
       </c>
       <c r="S2">
-        <v>0.186947174556007</v>
+        <v>0.2164381870334598</v>
       </c>
       <c r="T2">
-        <v>0.186947174556007</v>
+        <v>0.2164381870334598</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>37.2355522356001</v>
+        <v>459.5553626666667</v>
       </c>
       <c r="H3">
-        <v>37.2355522356001</v>
+        <v>1378.666088</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.997342491800172</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.997342491800172</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.02212846358585</v>
+        <v>2.096730333333333</v>
       </c>
       <c r="N3">
-        <v>2.02212846358585</v>
+        <v>6.290191</v>
       </c>
       <c r="O3">
-        <v>0.03558637910045341</v>
+        <v>0.03504699405682875</v>
       </c>
       <c r="P3">
-        <v>0.03558637910045341</v>
+        <v>0.03504699405682875</v>
       </c>
       <c r="Q3">
-        <v>75.29507003294471</v>
+        <v>963.5636687492009</v>
       </c>
       <c r="R3">
-        <v>75.29507003294471</v>
+        <v>8672.073018742807</v>
       </c>
       <c r="S3">
-        <v>0.03558637910045341</v>
+        <v>0.03495385638274341</v>
       </c>
       <c r="T3">
-        <v>0.03558637910045341</v>
+        <v>0.03495385638274341</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,247 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>37.2355522356001</v>
+        <v>459.5553626666667</v>
       </c>
       <c r="H4">
-        <v>37.2355522356001</v>
+        <v>1378.666088</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.997342491800172</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.997342491800172</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>44.1780554912984</v>
+        <v>44.746334</v>
       </c>
       <c r="N4">
-        <v>44.1780554912984</v>
+        <v>134.239002</v>
       </c>
       <c r="O4">
-        <v>0.7774664463435396</v>
+        <v>0.7479381000177296</v>
       </c>
       <c r="P4">
-        <v>0.7774664463435396</v>
+        <v>0.7479381000177296</v>
       </c>
       <c r="Q4">
-        <v>1644.994292913482</v>
+        <v>20563.4177493738</v>
       </c>
       <c r="R4">
-        <v>1644.994292913482</v>
+        <v>185070.7597443642</v>
       </c>
       <c r="S4">
-        <v>0.7774664463435396</v>
+        <v>0.7459504483839687</v>
       </c>
       <c r="T4">
-        <v>0.7774664463435396</v>
+        <v>0.7459504483839687</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>1.224526333333333</v>
+      </c>
+      <c r="H5">
+        <v>3.673579</v>
+      </c>
+      <c r="I5">
+        <v>0.002657508199827995</v>
+      </c>
+      <c r="J5">
+        <v>0.002657508199827995</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>12.98318866666667</v>
+      </c>
+      <c r="N5">
+        <v>38.949566</v>
+      </c>
+      <c r="O5">
+        <v>0.2170149059254416</v>
+      </c>
+      <c r="P5">
+        <v>0.2170149059254416</v>
+      </c>
+      <c r="Q5">
+        <v>15.89825641296822</v>
+      </c>
+      <c r="R5">
+        <v>143.084307716714</v>
+      </c>
+      <c r="S5">
+        <v>0.000576718891981762</v>
+      </c>
+      <c r="T5">
+        <v>0.000576718891981762</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>1.224526333333333</v>
+      </c>
+      <c r="H6">
+        <v>3.673579</v>
+      </c>
+      <c r="I6">
+        <v>0.002657508199827995</v>
+      </c>
+      <c r="J6">
+        <v>0.002657508199827995</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2.096730333333333</v>
+      </c>
+      <c r="N6">
+        <v>6.290191</v>
+      </c>
+      <c r="O6">
+        <v>0.03504699405682875</v>
+      </c>
+      <c r="P6">
+        <v>0.03504699405682875</v>
+      </c>
+      <c r="Q6">
+        <v>2.567501507065445</v>
+      </c>
+      <c r="R6">
+        <v>23.107513563589</v>
+      </c>
+      <c r="S6">
+        <v>9.313767408534543E-05</v>
+      </c>
+      <c r="T6">
+        <v>9.313767408534543E-05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>1.224526333333333</v>
+      </c>
+      <c r="H7">
+        <v>3.673579</v>
+      </c>
+      <c r="I7">
+        <v>0.002657508199827995</v>
+      </c>
+      <c r="J7">
+        <v>0.002657508199827995</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>44.746334</v>
+      </c>
+      <c r="N7">
+        <v>134.239002</v>
+      </c>
+      <c r="O7">
+        <v>0.7479381000177296</v>
+      </c>
+      <c r="P7">
+        <v>0.7479381000177296</v>
+      </c>
+      <c r="Q7">
+        <v>54.79306430312867</v>
+      </c>
+      <c r="R7">
+        <v>493.137578728158</v>
+      </c>
+      <c r="S7">
+        <v>0.001987651633760888</v>
+      </c>
+      <c r="T7">
+        <v>0.001987651633760888</v>
       </c>
     </row>
   </sheetData>
